--- a/default_t.xlsx
+++ b/default_t.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,6 +505,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="E5" t="n">
+        <v>104</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
